--- a/biology/Médecine/Leena_Peltonen-Palotie/Leena_Peltonen-Palotie.xlsx
+++ b/biology/Médecine/Leena_Peltonen-Palotie/Leena_Peltonen-Palotie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leena Peltonen-Palotie, née le 16 juin 1952 à Helsinki et morte le 11 mars 2010 dans la même ville, est une généticienne finlandaise qui a contribué à l'identification de 15 gènes de maladies génétiques de l'héritage finlandais, dont l'hypertension artérielle, la schizophrénie, l'intolérance au lactose, l'arthrose et la sclérose en plaques. Leena Peltonen-Palotie est reconnue comme l'une des principales généticiennes moléculaires au monde[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leena Peltonen-Palotie, née le 16 juin 1952 à Helsinki et morte le 11 mars 2010 dans la même ville, est une généticienne finlandaise qui a contribué à l'identification de 15 gènes de maladies génétiques de l'héritage finlandais, dont l'hypertension artérielle, la schizophrénie, l'intolérance au lactose, l'arthrose et la sclérose en plaques. Leena Peltonen-Palotie est reconnue comme l'une des principales généticiennes moléculaires au monde,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Enfance et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peltonen-Palotie est née à Helsinki ; sa famille déménage à Oulu lorsqu'elle est encore enfant. Elle termine ses études secondaires au lycée finnois mixte d'Oulu, dont elle obtient le diplôme de fin d'études en 1971. Peltonen-Palotie étudie la médecine et obtient son diplôme de médecine en 1976 ; elle termine sa thèse de doctorat à l'université d'Oulu en 1978.
 En 1978, elle part aux États-Unis pour y effectuer un post-doctorat.
@@ -543,11 +557,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peltonen-Palotie travaille à l'Institut national de santé publique de Finlande de 1987 à 1998. De 1998 à 2002, elle contribue à fonder le département de génétique humaine de l'université de Californie à Los Angeles (UCLA). Puis elle occupe un poste de professeur à l'Académie de Finlande à partir de 2003. En avril 2005, Peltonen-Palotie travaille à l'université d'Helsinki et à l'Institut national de santé publique de Finlande. Elle est également directrice de projet dans le projet européen GenomEUtwin qui a été formé pour définir et caractériser les composants génétiques à l'origine de différentes maladies. En 2004, elle devient membre du conseil d'administration d'Orion Corporation, la plus grande société pharmaceutique finlandaise. En septembre 2007, Peltonen-Palotie rejoint le Wellcome Trust Sanger Institute, à Cambridge au Royaume-Uni, en tant que directrice de la division génétique humaine. Elle dirige également des groupes de recherche au Broad Institute du Massachusetts Institute of Technology (MIT) et à l'université Harvard.
 Au cours de sa carrière, Peltonen-Palotie a publié plus de 500 articles de recherche et près de 80 articles invités ; elle a encadré plus de 70 doctorants.
-Elle est décédée le 11 mars 2010 d'un cancer des os[3].
+Elle est décédée le 11 mars 2010 d'un cancer des os.
 </t>
         </is>
       </c>
@@ -576,12 +592,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En plus de nombreux prix académiques, elle reçoit un diplôme honorifique de la Faculté de médecine de l'Université d'Uppsala en 2000, et de l'Université de Joensuu.
 En 2004, l'émission de télévision finlandaise Suuret suomalaiset classe Peltonen-Palotie au 77e rang des 100 plus grands Finlandais de tous les temps.
-En 2006, Peltonen-Palotie reçoit le prix Van Gysel[4] et le prix suédois Eric K. Fernström[3]. En 2009, elle reçoit le titre honorifique finlandais d'académicienne des sciences[5].
-Lors de la Journée internationale des femmes en 2010, ses recherches scientifiques sont honorées par un timbre postal commémoratif émis par la poste finlandaise[6],[7].
+En 2006, Peltonen-Palotie reçoit le prix Van Gysel et le prix suédois Eric K. Fernström. En 2009, elle reçoit le titre honorifique finlandais d'académicienne des sciences.
+Lors de la Journée internationale des femmes en 2010, ses recherches scientifiques sont honorées par un timbre postal commémoratif émis par la poste finlandaise,.
 Le prix Leena Peltonen d'excellence en génétique humaine a été créé en son honneur.</t>
         </is>
       </c>
